--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/140.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/140.xlsx
@@ -479,13 +479,13 @@
         <v>-12.83483788726786</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.512477189552001</v>
+        <v>-9.686905940312318</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.0304387757049</v>
+        <v>-3.042784817284648</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.243080416219009</v>
+        <v>-6.451418231339396</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-12.66032045918256</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.797902483804471</v>
+        <v>-9.975643587183745</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.013065289833929</v>
+        <v>-3.005419384974362</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.207233691038364</v>
+        <v>-6.416658167294614</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-12.61829677329303</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.62204985538829</v>
+        <v>-10.79976477416188</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.842616599137498</v>
+        <v>-2.823187621720376</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.093094994864195</v>
+        <v>-6.298971457050338</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-12.69118140152788</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.35453801477718</v>
+        <v>-11.5299094113421</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.789016711303471</v>
+        <v>-2.782339636854191</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.327054446645841</v>
+        <v>-6.537997630031731</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-12.81889422430377</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.19103142794074</v>
+        <v>-12.37703377441314</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.610044931457076</v>
+        <v>-2.59217393807812</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.850756469263846</v>
+        <v>-6.053844270944701</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-12.93057144031036</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.87992221886668</v>
+        <v>-13.06380361227872</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.555803520783805</v>
+        <v>-2.534476159454633</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.947050356664741</v>
+        <v>-6.145294006294157</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.96383350504467</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.43206390661079</v>
+        <v>-13.62627512696496</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.450475944422119</v>
+        <v>-2.435930395964961</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.452711185966848</v>
+        <v>-5.641017777739394</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-12.85943921024575</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.43400475078525</v>
+        <v>-14.63016672426283</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.246380035422451</v>
+        <v>-2.243106959712019</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.275245020947252</v>
+        <v>-5.448377633726238</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-12.58757839526107</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.18652413352198</v>
+        <v>-15.38073535387614</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.222198552073783</v>
+        <v>-2.215312000779035</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.898592560493634</v>
+        <v>-5.072170311569239</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-12.13798129537427</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.87500906305983</v>
+        <v>-16.07769100335259</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.019267858027029</v>
+        <v>-2.009501000107101</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.665523385305227</v>
+        <v>-4.838001382942126</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-11.5406502617381</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.52639040634422</v>
+        <v>-16.72847010070627</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.100191381891737</v>
+        <v>-2.113296777036306</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.135285120215321</v>
+        <v>-4.311952654761573</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-10.84691729062042</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.50747521209181</v>
+        <v>-17.70548320027007</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.895100457876099</v>
+        <v>-1.902746362735667</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.480355762860816</v>
+        <v>-3.645475886300666</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-10.13377363086483</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.10163009965502</v>
+        <v>-18.29746476556156</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.63122509410111</v>
+        <v>-1.643780612526325</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.183592534347412</v>
+        <v>-3.364148482837656</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-9.479949639600552</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.01883755983782</v>
+        <v>-19.22217411527267</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.487982208709785</v>
+        <v>-1.504465417987518</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.591715707478659</v>
+        <v>-2.772494225117213</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-8.952841273388023</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.9309521142152</v>
+        <v>-20.13948631387821</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.322312208550583</v>
+        <v>-1.335247403758208</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.183838104747525</v>
+        <v>-2.351498134938669</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-8.597195272930621</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.72891488011556</v>
+        <v>-20.93699084917911</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.127407096145807</v>
+        <v>-1.152269379242245</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.68151262931618</v>
+        <v>-1.856740010549841</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-8.425241608787481</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.69036123160055</v>
+        <v>-21.8970232319572</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.032121316063725</v>
+        <v>-1.053199923638904</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.316918179779792</v>
+        <v>-1.484957886753346</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-8.42848481873486</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.53211775050649</v>
+        <v>-22.74082215010645</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9229184180608878</v>
+        <v>-0.9532532837451672</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.9574297283516777</v>
+        <v>-1.133769955326886</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-8.571988996310903</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.20736636187135</v>
+        <v>-23.42678026519584</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6952563639461132</v>
+        <v>-0.7352140722190612</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.6185747462021236</v>
+        <v>-0.7951899115370082</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-8.818475574842841</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.82358177972288</v>
+        <v>-24.03984043806251</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.4146359448365566</v>
+        <v>-0.4616896812497202</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2638126160998723</v>
+        <v>-0.4340649222536782</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-9.118122956188394</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.48662836483925</v>
+        <v>-24.70948554381111</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.2397227788710964</v>
+        <v>-0.3040059858239714</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.120399530771605</v>
+        <v>-0.2597801868246207</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-9.430403443861294</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.92190815741812</v>
+        <v>-25.13421294029954</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.1697313278792288</v>
+        <v>-0.2379553179874634</v>
       </c>
       <c r="G23" t="n">
-        <v>0.08996759128924946</v>
+        <v>-0.0575695694341616</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-9.71171579525118</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.34547033895364</v>
+        <v>-25.56847153325676</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.2010612085794793</v>
+        <v>-0.270856275028721</v>
       </c>
       <c r="G24" t="n">
-        <v>0.104185832175364</v>
+        <v>-0.03201339428711231</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-9.934749429184121</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.60509070430507</v>
+        <v>-25.82438677690398</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1006770950137814</v>
+        <v>0.03154973600946775</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1041465552668388</v>
+        <v>-0.02630515024811975</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-10.07595650520856</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.60825904159276</v>
+        <v>-25.83281821993405</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07953302592439379</v>
+        <v>0.002681208243461764</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.05627343145283072</v>
+        <v>-0.1882045671889043</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.13003382515691</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.60497287357949</v>
+        <v>-25.84122347835844</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.1185797006766051</v>
+        <v>-0.1935462267483286</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.03814059201704011</v>
+        <v>-0.1651752064903081</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-10.09349109628662</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.66752789655726</v>
+        <v>-25.89376288966228</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06185841708806359</v>
+        <v>0.0007959166342532105</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.3307666528324595</v>
+        <v>-0.4616373120383532</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-9.977021671849315</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.7441309604842</v>
+        <v>-25.98297384122581</v>
       </c>
       <c r="F29" t="n">
-        <v>0.006347053039145063</v>
+        <v>-0.0545059705691977</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.4029052414903701</v>
+        <v>-0.529088856278926</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.790364586155135</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.50145203500996</v>
+        <v>-25.73005673492934</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.09963513846462746</v>
+        <v>-0.1578042399904164</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.560680583036011</v>
+        <v>-0.67801380110356</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.551549286026386</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.06141973649955</v>
+        <v>-25.29895338695698</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.1079487507691235</v>
+        <v>-0.1663142368375383</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.074553469573759</v>
+        <v>-1.19645590133307</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.275677849755635</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.11889494597473</v>
+        <v>-25.36592051599241</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.03803585359430631</v>
+        <v>-0.08920057309977178</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.215911063355875</v>
+        <v>-1.351769889944467</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-8.981098146815297</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.71055911264413</v>
+        <v>-24.94931034726585</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.08984209593901636</v>
+        <v>-0.1384930932988704</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.712633033170962</v>
+        <v>-1.85248501212628</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-8.683816259682851</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.09103134217365</v>
+        <v>-24.32153442600508</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1585505012523948</v>
+        <v>-0.1947507186097673</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.759346369710241</v>
+        <v>-1.890753813332646</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.400421201493574</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.73870438039997</v>
+        <v>-23.96558089634424</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.356741781670444</v>
+        <v>-0.3930205528448669</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.878721987021099</v>
+        <v>-2.022488564526093</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-8.147287737101022</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.96357459065557</v>
+        <v>-23.18060569486287</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4627632500827417</v>
+        <v>-0.4935170694579562</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.056017952103754</v>
+        <v>-2.195280777431194</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.937126245486112</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.17351957567161</v>
+        <v>-22.38880940360096</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.4059164711439671</v>
+        <v>-0.4405325198574908</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.208058865004719</v>
+        <v>-2.354339164655324</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.78020776935388</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.78810836461688</v>
+        <v>-22.0096955902131</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.466664756329576</v>
+        <v>-0.5003774361470207</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.4758226427237</v>
+        <v>-2.625336741176212</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.678367576374793</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.13855994373032</v>
+        <v>-21.35614092465697</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.3850080635057306</v>
+        <v>-0.4297837392244337</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.651966485156283</v>
+        <v>-2.808930103925737</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.632851431006116</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.75966869949077</v>
+        <v>-20.96837309909073</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5991195841793187</v>
+        <v>-0.6272156660776629</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.855879101916166</v>
+        <v>-3.006532230715908</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.633818430530865</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.15958299874026</v>
+        <v>-20.35298249631824</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.36983408451217</v>
+        <v>-0.4107344385897223</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.752816493946099</v>
+        <v>-2.911757050444653</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.675415067819872</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.63649313100193</v>
+        <v>-19.84164951653178</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.1282025432652737</v>
+        <v>-0.1666808213171067</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.828882773456527</v>
+        <v>-3.005458661882887</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-7.743100823899328</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.72735052936964</v>
+        <v>-18.9271783476429</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.1121382876784758</v>
+        <v>-0.1458116905873953</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.788349003858543</v>
+        <v>-2.975529657586701</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-7.831282888189588</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.39962400463555</v>
+        <v>-18.59561577817619</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.06638068924664324</v>
+        <v>-0.0979462313980448</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.006794076772743</v>
+        <v>-3.201136220155324</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-7.929387054398323</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.84651348648115</v>
+        <v>-18.03245037143934</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.09079783404646237</v>
+        <v>-0.1238820833275041</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.068000592557812</v>
+        <v>-3.267304718717408</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-8.038310333805542</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.39573240733768</v>
+        <v>-17.57331640308285</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.02193232109898324</v>
+        <v>-0.05115434104171583</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.918630509436559</v>
+        <v>-3.099356657863746</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-8.156207244004378</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.72086347275522</v>
+        <v>-16.89311890124381</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.06140561416678734</v>
+        <v>-0.09790695448951962</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.280645775313127</v>
+        <v>-3.471060227843191</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.290613792744448</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.06372151622047</v>
+        <v>-16.23481172975614</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.02963059516991817</v>
+        <v>-0.05797543082225511</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.166572540653168</v>
+        <v>-3.341904660309563</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.447663698617692</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.45490324947452</v>
+        <v>-15.60695725467833</v>
       </c>
       <c r="F49" t="n">
-        <v>0.06810344554356693</v>
+        <v>0.0355428883761942</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.437229717300171</v>
+        <v>-3.627906015887069</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.637273287340827</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.75395444763135</v>
+        <v>-14.89710568690278</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1628917181176637</v>
+        <v>0.1196871187399676</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.393619256534381</v>
+        <v>-3.587071123323725</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.868771184971212</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.93889313421969</v>
+        <v>-14.08057803557285</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1871910321919072</v>
+        <v>0.1463692319314054</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.536155157572253</v>
+        <v>-3.745383249285877</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.145948057377291</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.34958239870792</v>
+        <v>-13.49505097558234</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2556114068427677</v>
+        <v>0.2148550680964744</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.484872607341212</v>
+        <v>-3.671320092110232</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-9.476169149973831</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.6958706255177</v>
+        <v>-12.83153306756366</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3195542139217578</v>
+        <v>0.2832754427473348</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.531913251451534</v>
+        <v>-3.72355838044872</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.854203724045247</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.31485842821778</v>
+        <v>-12.44874031707727</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2004928118791009</v>
+        <v>0.1547483057501101</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.702833265050268</v>
+        <v>-3.909613096132489</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-10.2827911390882</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.76710266192565</v>
+        <v>-11.8769994519791</v>
       </c>
       <c r="F55" t="n">
-        <v>0.01513198824594326</v>
+        <v>-0.01499340059286843</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.142276409932803</v>
+        <v>-4.335256953819845</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-10.74871229897031</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.34153735805534</v>
+        <v>-11.44957504110527</v>
       </c>
       <c r="F56" t="n">
-        <v>0.02780533739673409</v>
+        <v>-0.01653829232819211</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.246085279164848</v>
+        <v>-4.447811481350164</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-11.24944721253542</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.57167067405332</v>
+        <v>-10.67674949666102</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.02337247441157311</v>
+        <v>-0.06346110571293834</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.646984684481342</v>
+        <v>-4.860336851590111</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-11.76599638257719</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.30742872579877</v>
+        <v>-10.41597700865952</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.1914252736879689</v>
+        <v>-0.2285681368499458</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.669516537671953</v>
+        <v>-4.875681030520614</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-12.29228920884649</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.709162855143251</v>
+        <v>-9.806896895856738</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.1334918336133311</v>
+        <v>-0.1749289721073941</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.969592118804314</v>
+        <v>-5.18117682502945</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-12.80819359426573</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.368684427441323</v>
+        <v>-9.480139201532937</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.2426030854962761</v>
+        <v>-0.2810289943367421</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.859184728940039</v>
+        <v>-5.063516299390858</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-13.30937159720252</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.815390617047139</v>
+        <v>-8.920089762872422</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.268368737488793</v>
+        <v>-0.307226692323036</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.234763620560635</v>
+        <v>-5.436777853408468</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-13.77971134891455</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.337233532661619</v>
+        <v>-8.443647770159169</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.2246142613917445</v>
+        <v>-0.260578817297966</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.253904567315238</v>
+        <v>-5.460893875242927</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-14.21731230391087</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.889437498566062</v>
+        <v>-7.993979536757245</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.2412676706064201</v>
+        <v>-0.2747970581840805</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.23556225103398</v>
+        <v>-5.44240754363041</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-14.60980808889097</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.534112399441617</v>
+        <v>-7.645370788990605</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3968565975774926</v>
+        <v>-0.4276496938612324</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.422232304951311</v>
+        <v>-5.622125584738784</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-14.95736874127106</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.181746160759402</v>
+        <v>-7.291145443304865</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.3305309913813084</v>
+        <v>-0.3567679662761274</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.680530347715724</v>
+        <v>-5.871350661633882</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-15.25112395728627</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.931748637996642</v>
+        <v>-7.03845090615671</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.4465418868618431</v>
+        <v>-0.4752271223880649</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.642012792755366</v>
+        <v>-5.826273862949819</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-15.49227546539236</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.766340483894275</v>
+        <v>-6.873671182590746</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.5396412523693571</v>
+        <v>-0.5702772410189961</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.732729359145686</v>
+        <v>-5.912434307951218</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-15.67547698964243</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.489739401757128</v>
+        <v>-6.594661116730721</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4860675491410141</v>
+        <v>-0.5187721216396458</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.707932537563456</v>
+        <v>-5.880541458228773</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-15.80424850159789</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.368962908042206</v>
+        <v>-6.480299851408244</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.7757216572113617</v>
+        <v>-0.8123015513511442</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.743739985835577</v>
+        <v>-5.905914341136038</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-15.87817522701402</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.177906932672897</v>
+        <v>-6.292896628531778</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6908311655856098</v>
+        <v>-0.7200531855283424</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.581015753815764</v>
+        <v>-5.737704434225542</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-15.90290087702665</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.087452212339412</v>
+        <v>-6.210428212931745</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.7593170017506788</v>
+        <v>-0.789468575195174</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.496596585092314</v>
+        <v>-5.646464175721553</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-15.88096936248012</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.094273302119951</v>
+        <v>-6.223860915647355</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.8854089704193426</v>
+        <v>-0.9198417268930822</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.325270710105487</v>
+        <v>-5.461430659659438</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-15.81765901845416</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.149771573866028</v>
+        <v>-6.280537494649188</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.9365475053191247</v>
+        <v>-0.973428522424267</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.146783345464235</v>
+        <v>-5.287041185807647</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-15.71707097655346</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.367771508483608</v>
+        <v>-6.49809229097015</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.8153651502161081</v>
+        <v>-0.8520628750814663</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.004365275151939</v>
+        <v>-5.138430456251214</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-15.58331320095606</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.548026334008493</v>
+        <v>-6.674812194727768</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.154547439936705</v>
+        <v>-1.197647300891668</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.835579306916407</v>
+        <v>-4.969120795902013</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-15.42173099546558</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.021889143061927</v>
+        <v>-7.144393820751957</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.086441280554046</v>
+        <v>-1.132604740373973</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.62276392422415</v>
+        <v>-4.744640171377777</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-15.23386310219134</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.461201364916045</v>
+        <v>-7.573965369291831</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.149493811039799</v>
+        <v>-1.199270746444042</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.550913366228757</v>
+        <v>-4.677686134645191</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-15.0263034184118</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.060946665792674</v>
+        <v>-8.174771146698641</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.207401066508754</v>
+        <v>-1.250592573583608</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.182770902622262</v>
+        <v>-4.317359775835206</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-14.79945982754688</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.473773158997981</v>
+        <v>-8.58655025567661</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.210700326824869</v>
+        <v>-1.264378768475945</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.035953818555146</v>
+        <v>-4.175439213030895</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-14.56287861308086</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.926937037258645</v>
+        <v>-9.036035196838748</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.342945677829144</v>
+        <v>-1.385220723705077</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.677421105234477</v>
+        <v>-3.818870345136486</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-14.31815139875181</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.821206782862744</v>
+        <v>-9.922384099223603</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.315622041798461</v>
+        <v>-1.366066684647632</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.678232828010664</v>
+        <v>-3.825914004065334</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-14.07905202026127</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.58473679228937</v>
+        <v>-10.67486420505181</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.3975274883763</v>
+        <v>-1.449778869017628</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.478300271314665</v>
+        <v>-3.621647895128724</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-13.84818176694634</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.38170454317376</v>
+        <v>-11.46355762054023</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.52845051679356</v>
+        <v>-1.582508635227047</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.141670980648204</v>
+        <v>-3.291446925157551</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-13.64128702873564</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.56624373508176</v>
+        <v>-12.65222088784338</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.598009921791651</v>
+        <v>-1.650287487038663</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.996555895950513</v>
+        <v>-3.144223979702341</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-13.46091799113591</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.45128340718245</v>
+        <v>-13.52966702429586</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.66763478830395</v>
+        <v>-1.714714709322797</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.666420387493548</v>
+        <v>-2.812229364241852</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-13.32324750259913</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.58603257138337</v>
+        <v>-14.65154645480337</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.854344119129806</v>
+        <v>-1.899630394659336</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.409641051858775</v>
+        <v>-2.557649535484488</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-13.23175541367279</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.64818491632692</v>
+        <v>-15.70635401785271</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.887467645319372</v>
+        <v>-1.931601798198831</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.98567300893516</v>
+        <v>-2.129937093948139</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-13.20194111727953</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.04455756821406</v>
+        <v>-17.09927030178963</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.848190736794194</v>
+        <v>-1.879023109986459</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.700417914619632</v>
+        <v>-1.853375288719518</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-13.23779769036749</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.68027060835079</v>
+        <v>-18.72642097586787</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.068141424535192</v>
+        <v>-2.100832904730982</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.520005981460647</v>
+        <v>-1.672505124961072</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-13.3508867394004</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.26155894557446</v>
+        <v>-20.30314009939978</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.287162558774428</v>
+        <v>-2.313438810577772</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.235942286703716</v>
+        <v>-1.388218861055832</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-13.54407717414888</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.9888002748777</v>
+        <v>-22.00710331425043</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.458200403098737</v>
+        <v>-2.472955428401362</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.376605988435221</v>
+        <v>-1.526381932944567</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-13.82035754980284</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.64894355211709</v>
+        <v>-23.65600030334878</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.560948795800603</v>
+        <v>-2.582001218770098</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.175272555335158</v>
+        <v>-1.325074684450188</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-14.17726975066387</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.75139718856136</v>
+        <v>-25.75760294010833</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.688546379296065</v>
+        <v>-2.697148022263079</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.15078994902113</v>
+        <v>-1.29877224804116</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-14.60234485463543</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.97086982780497</v>
+        <v>-27.97111858155896</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.541991141285784</v>
+        <v>-2.546206862800819</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.255633110177672</v>
+        <v>-1.395301796893206</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-15.08423753430958</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.23987064869883</v>
+        <v>-30.23336377418649</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.992156882195693</v>
+        <v>-2.988595775822743</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.606100964947837</v>
+        <v>-1.750443603777867</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-15.59534005328195</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.46327097879496</v>
+        <v>-32.46019428762715</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.021313440624217</v>
+        <v>-3.004673123712383</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.859122809667036</v>
+        <v>-2.008073939097353</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-16.1151770094164</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.69679165898774</v>
+        <v>-34.69904353507652</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.317841007686471</v>
+        <v>-3.288056018721544</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.047206832291272</v>
+        <v>-2.188027641656878</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-16.60814311300292</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.20514596043404</v>
+        <v>-37.20336540724757</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.566804238524734</v>
+        <v>-3.53932349485995</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.483651839823052</v>
+        <v>-2.633414692029557</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-17.05335319635928</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.68180379670051</v>
+        <v>-39.66301634212264</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.498632617627866</v>
+        <v>-3.476009118317363</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.95655891076904</v>
+        <v>-3.109044961966623</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-17.41678781943964</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.2493614915971</v>
+        <v>-42.2321058364517</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.676138059555988</v>
+        <v>-3.653291991097176</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.258572152721977</v>
+        <v>-3.402417284044021</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-17.68699241469813</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.54398394915222</v>
+        <v>-44.53013229274567</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.889961549567058</v>
+        <v>-3.863593651643822</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.797110937813537</v>
+        <v>-3.924276475315222</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-17.8422323588809</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.86229038254802</v>
+        <v>-46.85036329465921</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.022953161833311</v>
+        <v>-3.993312188199643</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.101323686643884</v>
+        <v>-4.231461176890641</v>
       </c>
     </row>
   </sheetData>
